--- a/log/c620_log.xlsx
+++ b/log/c620_log.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Tatoray Stripper C620 Operation_Specifications_Spec 2 : Distillate Rate_m3/hr</t>
   </si>
@@ -673,10 +667,7 @@
     <t>Tatoray Stripper C620 Operation_Column Temp Profile_C620 Tray 34 (Control)_oC</t>
   </si>
   <si>
-    <t>實驗002</t>
-  </si>
-  <si>
-    <t>測試001</t>
+    <t>實驗003</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HL4"/>
+  <dimension ref="A1:HJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:220">
+    <row r="1" spans="1:218">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1692,1336 +1683,660 @@
       <c r="HJ1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:218">
+      <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:220">
-      <c r="A2" s="1">
+      <c r="B2">
+        <v>5.3799996273845</v>
+      </c>
+      <c r="C2">
+        <v>79.99983215500001</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="E2">
+        <v>0.020720026455</v>
+      </c>
+      <c r="F2">
+        <v>0.5025289655</v>
+      </c>
+      <c r="G2">
+        <v>0.46270649135</v>
+      </c>
+      <c r="H2">
+        <v>0.1382605247</v>
+      </c>
+      <c r="I2">
+        <v>0.069504845885</v>
+      </c>
+      <c r="J2">
+        <v>0.014335173645</v>
+      </c>
+      <c r="K2">
+        <v>15.6840148</v>
+      </c>
+      <c r="L2">
+        <v>0.0070457637775</v>
+      </c>
+      <c r="M2">
+        <v>0.01390316058</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:220">
-      <c r="A3" s="1">
+      <c r="O2">
+        <v>0.011217116845</v>
+      </c>
+      <c r="P2">
+        <v>42.71531296</v>
+      </c>
+      <c r="Q2">
+        <v>0.007478077896000001</v>
+      </c>
+      <c r="R2">
+        <v>0.0088023208085</v>
+      </c>
+      <c r="S2">
+        <v>0.0088023208085</v>
+      </c>
+      <c r="T2">
+        <v>0.8395257294</v>
+      </c>
+      <c r="U2">
+        <v>6.211980343</v>
+      </c>
+      <c r="V2">
+        <v>13.40361929</v>
+      </c>
+      <c r="W2">
+        <v>5.668794870499999</v>
+      </c>
+      <c r="X2">
+        <v>0.012775049545</v>
+      </c>
+      <c r="Y2">
+        <v>0.008832471678500001</v>
+      </c>
+      <c r="Z2">
+        <v>0.0024147959195</v>
+      </c>
+      <c r="AA2">
+        <v>0.010637788102</v>
+      </c>
+      <c r="AB2">
+        <v>0.95064103585</v>
+      </c>
+      <c r="AC2">
+        <v>0.49817502495</v>
+      </c>
+      <c r="AD2">
+        <v>2.607076049</v>
+      </c>
+      <c r="AE2">
+        <v>0.2799688876</v>
+      </c>
+      <c r="AF2">
+        <v>6.6587879655</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1.06311696755</v>
+      </c>
+      <c r="AI2">
+        <v>0.042034257205</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0008307401149000001</v>
+      </c>
+      <c r="AK2">
+        <v>0.02056835778</v>
+      </c>
+      <c r="AL2">
+        <v>0.79971787335</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0.92039969565</v>
+      </c>
+      <c r="AO2">
+        <v>0.2850243598</v>
+      </c>
+      <c r="AP2">
+        <v>0.1223625764</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999901056289673</v>
+      </c>
+      <c r="AT2">
+        <v>0.9762665629386902</v>
+      </c>
+      <c r="AU2">
+        <v>0.8891280889511108</v>
+      </c>
+      <c r="AV2">
+        <v>0.7138208150863647</v>
+      </c>
+      <c r="AW2">
+        <v>0.4332675933837891</v>
+      </c>
+      <c r="AX2">
+        <v>0.2400849908590317</v>
+      </c>
+      <c r="AY2">
+        <v>0.07026967406272888</v>
+      </c>
+      <c r="AZ2">
+        <v>0.005659035872668028</v>
+      </c>
+      <c r="BA2">
+        <v>0.0158403143286705</v>
+      </c>
+      <c r="BB2">
+        <v>0.002797321416437626</v>
+      </c>
+      <c r="BC2">
+        <v>1.791311660781503e-06</v>
+      </c>
+      <c r="BD2">
+        <v>0.000137718379846774</v>
+      </c>
+      <c r="BE2">
+        <v>6.47789056529291e-06</v>
+      </c>
+      <c r="BF2">
+        <v>5.77239097765414e-06</v>
+      </c>
+      <c r="BG2">
+        <v>1.46665009026492e-08</v>
+      </c>
+      <c r="BH2">
+        <v>6.750045855596909e-09</v>
+      </c>
+      <c r="BI2">
+        <v>4.202883874260266e-10</v>
+      </c>
+      <c r="BJ2">
+        <v>1.926713094624333e-10</v>
+      </c>
+      <c r="BK2">
+        <v>1.295984847216047e-10</v>
+      </c>
+      <c r="BL2">
+        <v>1.276252714621506e-11</v>
+      </c>
+      <c r="BM2">
+        <v>1.362257806558631e-10</v>
+      </c>
+      <c r="BN2">
+        <v>6.430097882099972e-13</v>
+      </c>
+      <c r="BO2">
+        <v>6.09154762222508e-13</v>
+      </c>
+      <c r="BP2">
+        <v>2.962978170109598e-14</v>
+      </c>
+      <c r="BQ2">
+        <v>1.044270599897049e-13</v>
+      </c>
+      <c r="BR2">
+        <v>6.249923403247801e-14</v>
+      </c>
+      <c r="BS2">
+        <v>2.455890715400907e-15</v>
+      </c>
+      <c r="BT2">
+        <v>4.807430359831874e-14</v>
+      </c>
+      <c r="BU2">
+        <v>2.719194401065814e-16</v>
+      </c>
+      <c r="BV2">
+        <v>7.012452897470212e-06</v>
+      </c>
+      <c r="BW2">
+        <v>1.102230822090281e-17</v>
+      </c>
+      <c r="BX2">
+        <v>2.347937941225233e-17</v>
+      </c>
+      <c r="BY2">
+        <v>1.300713492496386e-18</v>
+      </c>
+      <c r="BZ2">
+        <v>1.466706927944699e-18</v>
+      </c>
+      <c r="CA2">
+        <v>8.101337125980169e-19</v>
+      </c>
+      <c r="CB2">
+        <v>2.778546559056849e-06</v>
+      </c>
+      <c r="CC2">
+        <v>4.431296004584109e-22</v>
+      </c>
+      <c r="CD2">
+        <v>3.671486448365235e-23</v>
+      </c>
+      <c r="CE2">
+        <v>2.336089852039541e-27</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999886751174927</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999898672103882</v>
+      </c>
+      <c r="CH2">
+        <v>2.767767227851436e-06</v>
+      </c>
+      <c r="CI2">
+        <v>0.02107110992074013</v>
+      </c>
+      <c r="CJ2">
+        <v>0.1037615463137627</v>
+      </c>
+      <c r="CK2">
+        <v>0.2716274261474609</v>
+      </c>
+      <c r="CL2">
+        <v>0.5339697599411011</v>
+      </c>
+      <c r="CM2">
+        <v>0.6903063058853149</v>
+      </c>
+      <c r="CN2">
+        <v>0.6230605840682983</v>
+      </c>
+      <c r="CO2">
+        <v>0.1357767879962921</v>
+      </c>
+      <c r="CP2">
+        <v>0.2549991011619568</v>
+      </c>
+      <c r="CQ2">
+        <v>0.08809974044561386</v>
+      </c>
+      <c r="CR2">
+        <v>0.9999908804893494</v>
+      </c>
+      <c r="CS2">
+        <v>0.006507882382720709</v>
+      </c>
+      <c r="CT2">
+        <v>0.0005077837849967182</v>
+      </c>
+      <c r="CU2">
+        <v>0.0004814230487681925</v>
+      </c>
+      <c r="CV2">
+        <v>1.699417907730094e-06</v>
+      </c>
+      <c r="CW2">
+        <v>7.960931043271557e-07</v>
+      </c>
+      <c r="CX2">
+        <v>8.565314857378326e-08</v>
+      </c>
+      <c r="CY2">
+        <v>4.134647113573919e-08</v>
+      </c>
+      <c r="CZ2">
+        <v>3.06969596408635e-08</v>
+      </c>
+      <c r="DA2">
+        <v>3.521686497975907e-09</v>
+      </c>
+      <c r="DB2">
+        <v>3.400477766035692e-08</v>
+      </c>
+      <c r="DC2">
+        <v>2.217470651544318e-10</v>
+      </c>
+      <c r="DD2">
+        <v>1.483253797562867e-10</v>
+      </c>
+      <c r="DE2">
+        <v>1.450387900059358e-11</v>
+      </c>
+      <c r="DF2">
+        <v>4.159926916824652e-11</v>
+      </c>
+      <c r="DG2">
+        <v>2.586868913523332e-11</v>
+      </c>
+      <c r="DH2">
+        <v>1.674226621055375e-12</v>
+      </c>
+      <c r="DI2">
+        <v>1.867577099912143e-11</v>
+      </c>
+      <c r="DJ2">
+        <v>2.1950078202531e-13</v>
+      </c>
+      <c r="DK2">
+        <v>3.956603450205876e-06</v>
+      </c>
+      <c r="DL2">
+        <v>1.251066477248475e-14</v>
+      </c>
+      <c r="DM2">
+        <v>1.967404104213921e-14</v>
+      </c>
+      <c r="DN2">
+        <v>1.746844411572898e-15</v>
+      </c>
+      <c r="DO2">
+        <v>1.649003635835553e-15</v>
+      </c>
+      <c r="DP2">
+        <v>1.199824181488966e-15</v>
+      </c>
+      <c r="DQ2">
+        <v>2.446952976242756e-06</v>
+      </c>
+      <c r="DR2">
+        <v>1.362480206209063e-18</v>
+      </c>
+      <c r="DS2">
+        <v>1.327386422486647e-19</v>
+      </c>
+      <c r="DT2">
+        <v>2.201444782574603e-23</v>
+      </c>
+      <c r="DU2">
+        <v>5.979258276056498e-06</v>
+      </c>
+      <c r="DV2">
+        <v>4.936841378366807e-06</v>
+      </c>
+      <c r="DW2">
+        <v>4.776365585712483e-06</v>
+      </c>
+      <c r="DX2">
+        <v>0.002660624217242002</v>
+      </c>
+      <c r="DY2">
+        <v>0.007108134683221579</v>
+      </c>
+      <c r="DZ2">
+        <v>0.0145481089130044</v>
+      </c>
+      <c r="EA2">
+        <v>0.03276263177394867</v>
+      </c>
+      <c r="EB2">
+        <v>0.06960874050855637</v>
+      </c>
+      <c r="EC2">
+        <v>0.3066696524620056</v>
+      </c>
+      <c r="ED2">
+        <v>0.8460677862167358</v>
+      </c>
+      <c r="EE2">
+        <v>0.7083788514137268</v>
+      </c>
+      <c r="EF2">
+        <v>0.701972484588623</v>
+      </c>
+      <c r="EG2">
+        <v>2.243267772428226e-06</v>
+      </c>
+      <c r="EH2">
+        <v>0.2805814743041992</v>
+      </c>
+      <c r="EI2">
+        <v>0.07571829110383987</v>
+      </c>
+      <c r="EJ2">
+        <v>0.05074268952012062</v>
+      </c>
+      <c r="EK2">
+        <v>0.00136508874129504</v>
+      </c>
+      <c r="EL2">
+        <v>0.0008062026463449001</v>
+      </c>
+      <c r="EM2">
+        <v>0.0002072472125291824</v>
+      </c>
+      <c r="EN2">
+        <v>0.000127518898807466</v>
+      </c>
+      <c r="EO2">
+        <v>0.000103214209957514</v>
+      </c>
+      <c r="EP2">
+        <v>2.421658064122312e-05</v>
+      </c>
+      <c r="EQ2">
+        <v>9.46856162045151e-05</v>
+      </c>
+      <c r="ER2">
+        <v>3.354553655299242e-06</v>
+      </c>
+      <c r="ES2">
+        <v>2.127395418938249e-06</v>
+      </c>
+      <c r="ET2">
+        <v>5.31930254510371e-07</v>
+      </c>
+      <c r="EU2">
+        <v>1.027265852826531e-06</v>
+      </c>
+      <c r="EV2">
+        <v>7.390084419967025e-07</v>
+      </c>
+      <c r="EW2">
+        <v>1.25855166288602e-07</v>
+      </c>
+      <c r="EX2">
+        <v>5.795837978439522e-07</v>
+      </c>
+      <c r="EY2">
+        <v>3.113755298045362e-08</v>
+      </c>
+      <c r="EZ2">
+        <v>5.66274911761866e-06</v>
+      </c>
+      <c r="FA2">
+        <v>4.480857462851873e-09</v>
+      </c>
+      <c r="FB2">
+        <v>5.664608782041114e-09</v>
+      </c>
+      <c r="FC2">
+        <v>9.978955439748916e-10</v>
+      </c>
+      <c r="FD2">
+        <v>9.21261900099779e-10</v>
+      </c>
+      <c r="FE2">
+        <v>7.855425199210231e-10</v>
+      </c>
+      <c r="FF2">
+        <v>4.421214271133067e-06</v>
+      </c>
+      <c r="FG2">
+        <v>8.199461075386605e-12</v>
+      </c>
+      <c r="FH2">
+        <v>1.513534306565867e-12</v>
+      </c>
+      <c r="FI2">
+        <v>3.699794173827632e-15</v>
+      </c>
+      <c r="FJ2">
+        <v>1.688596057647374e-06</v>
+      </c>
+      <c r="FK2">
+        <v>3.918775291822385e-06</v>
+      </c>
+      <c r="FL2">
+        <v>2.414523123661638e-06</v>
+      </c>
+      <c r="FM2">
+        <v>1.662404315538879e-06</v>
+      </c>
+      <c r="FN2">
+        <v>2.28471435548272e-06</v>
+      </c>
+      <c r="FO2">
+        <v>3.671004833449842e-06</v>
+      </c>
+      <c r="FP2">
+        <v>2.60526583540086e-23</v>
+      </c>
+      <c r="FQ2">
+        <v>1.87065913500044e-15</v>
+      </c>
+      <c r="FR2">
+        <v>8.042366061999928e-08</v>
+      </c>
+      <c r="FS2">
+        <v>0.01249646488577127</v>
+      </c>
+      <c r="FT2">
+        <v>0.02078173868358135</v>
+      </c>
+      <c r="FU2">
+        <v>0.2071304768323898</v>
+      </c>
+      <c r="FV2">
+        <v>4.950205493514659e-06</v>
+      </c>
+      <c r="FW2">
+        <v>0.7127728462219238</v>
+      </c>
+      <c r="FX2">
+        <v>0.9237674474716187</v>
+      </c>
+      <c r="FY2">
+        <v>0.9487701654434204</v>
+      </c>
+      <c r="FZ2">
+        <v>0.9986332654953003</v>
+      </c>
+      <c r="GA2">
+        <v>0.9991928935050964</v>
+      </c>
+      <c r="GB2">
+        <v>0.999792754650116</v>
+      </c>
+      <c r="GC2">
+        <v>0.9998724460601807</v>
+      </c>
+      <c r="GD2">
+        <v>0.9998968243598938</v>
+      </c>
+      <c r="GE2">
+        <v>0.9999758005142212</v>
+      </c>
+      <c r="GF2">
+        <v>0.9999052882194519</v>
+      </c>
+      <c r="GG2">
+        <v>0.9999966025352478</v>
+      </c>
+      <c r="GH2">
+        <v>0.9999978542327881</v>
+      </c>
+      <c r="GI2">
+        <v>0.9999994039535522</v>
+      </c>
+      <c r="GJ2">
+        <v>0.9999990463256836</v>
+      </c>
+      <c r="GK2">
+        <v>0.9999993443489075</v>
+      </c>
+      <c r="GL2">
+        <v>0.9999998807907104</v>
+      </c>
+      <c r="GM2">
+        <v>0.9999994039535522</v>
+      </c>
+      <c r="GN2">
+        <v>0.9999998807907104</v>
+      </c>
+      <c r="GO2">
+        <v>0.9999832510948181</v>
+      </c>
+      <c r="GP2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3">
-        <v>5.3799996273845</v>
-      </c>
-      <c r="E3">
-        <v>79.99983215500001</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.020720026455</v>
-      </c>
-      <c r="H3">
-        <v>0.5025289655</v>
-      </c>
-      <c r="I3">
-        <v>0.46270649135</v>
-      </c>
-      <c r="J3">
-        <v>0.1382605247</v>
-      </c>
-      <c r="K3">
-        <v>0.069504845885</v>
-      </c>
-      <c r="L3">
-        <v>0.014335173645</v>
-      </c>
-      <c r="M3">
-        <v>15.6840148</v>
-      </c>
-      <c r="N3">
-        <v>0.0070457637775</v>
-      </c>
-      <c r="O3">
-        <v>0.01390316058</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0.011217116845</v>
-      </c>
-      <c r="R3">
-        <v>42.71531296</v>
-      </c>
-      <c r="S3">
-        <v>0.007478077896000001</v>
-      </c>
-      <c r="T3">
-        <v>0.0088023208085</v>
-      </c>
-      <c r="U3">
-        <v>0.0088023208085</v>
-      </c>
-      <c r="V3">
-        <v>0.8395257294</v>
-      </c>
-      <c r="W3">
-        <v>6.211980343</v>
-      </c>
-      <c r="X3">
-        <v>13.40361929</v>
-      </c>
-      <c r="Y3">
-        <v>5.668794870499999</v>
-      </c>
-      <c r="Z3">
-        <v>0.012775049545</v>
-      </c>
-      <c r="AA3">
-        <v>0.008832471678500001</v>
-      </c>
-      <c r="AB3">
-        <v>0.0024147959195</v>
-      </c>
-      <c r="AC3">
-        <v>0.010637788102</v>
-      </c>
-      <c r="AD3">
-        <v>0.95064103585</v>
-      </c>
-      <c r="AE3">
-        <v>0.49817502495</v>
-      </c>
-      <c r="AF3">
-        <v>2.607076049</v>
-      </c>
-      <c r="AG3">
-        <v>0.2799688876</v>
-      </c>
-      <c r="AH3">
-        <v>6.6587879655</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>1.06311696755</v>
-      </c>
-      <c r="AK3">
-        <v>0.042034257205</v>
-      </c>
-      <c r="AL3">
-        <v>0.0008307401149000001</v>
-      </c>
-      <c r="AM3">
-        <v>0.02056835778</v>
-      </c>
-      <c r="AN3">
-        <v>0.79971787335</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0.92039969565</v>
-      </c>
-      <c r="AQ3">
-        <v>0.2850243598</v>
-      </c>
-      <c r="AR3">
-        <v>0.1223625764</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0.9999901056289673</v>
-      </c>
-      <c r="AV3">
-        <v>0.9762665629386902</v>
-      </c>
-      <c r="AW3">
-        <v>0.8891280889511108</v>
-      </c>
-      <c r="AX3">
-        <v>0.7138208150863647</v>
-      </c>
-      <c r="AY3">
-        <v>0.4332675933837891</v>
-      </c>
-      <c r="AZ3">
-        <v>0.2400849908590317</v>
-      </c>
-      <c r="BA3">
-        <v>0.07026967406272888</v>
-      </c>
-      <c r="BB3">
-        <v>0.005659035872668028</v>
-      </c>
-      <c r="BC3">
-        <v>0.0158403143286705</v>
-      </c>
-      <c r="BD3">
-        <v>0.002797321416437626</v>
-      </c>
-      <c r="BE3">
-        <v>1.791311660781503e-06</v>
-      </c>
-      <c r="BF3">
-        <v>0.000137718379846774</v>
-      </c>
-      <c r="BG3">
-        <v>6.47789056529291e-06</v>
-      </c>
-      <c r="BH3">
-        <v>5.77239097765414e-06</v>
-      </c>
-      <c r="BI3">
-        <v>1.46665009026492e-08</v>
-      </c>
-      <c r="BJ3">
-        <v>6.750045855596909e-09</v>
-      </c>
-      <c r="BK3">
-        <v>4.202883874260266e-10</v>
-      </c>
-      <c r="BL3">
-        <v>1.926713094624333e-10</v>
-      </c>
-      <c r="BM3">
-        <v>1.295984847216047e-10</v>
-      </c>
-      <c r="BN3">
-        <v>1.276252714621506e-11</v>
-      </c>
-      <c r="BO3">
-        <v>1.362257806558631e-10</v>
-      </c>
-      <c r="BP3">
-        <v>6.430097882099972e-13</v>
-      </c>
-      <c r="BQ3">
-        <v>6.09154762222508e-13</v>
-      </c>
-      <c r="BR3">
-        <v>2.962978170109598e-14</v>
-      </c>
-      <c r="BS3">
-        <v>1.044270599897049e-13</v>
-      </c>
-      <c r="BT3">
-        <v>6.249923403247801e-14</v>
-      </c>
-      <c r="BU3">
-        <v>2.455890715400907e-15</v>
-      </c>
-      <c r="BV3">
-        <v>4.807430359831874e-14</v>
-      </c>
-      <c r="BW3">
-        <v>2.719194401065814e-16</v>
-      </c>
-      <c r="BX3">
-        <v>7.012452897470212e-06</v>
-      </c>
-      <c r="BY3">
-        <v>1.102230822090281e-17</v>
-      </c>
-      <c r="BZ3">
-        <v>2.347937941225233e-17</v>
-      </c>
-      <c r="CA3">
-        <v>1.300713492496386e-18</v>
-      </c>
-      <c r="CB3">
-        <v>1.466706927944699e-18</v>
-      </c>
-      <c r="CC3">
-        <v>8.101337125980169e-19</v>
-      </c>
-      <c r="CD3">
-        <v>2.778546559056849e-06</v>
-      </c>
-      <c r="CE3">
-        <v>4.431296004584109e-22</v>
-      </c>
-      <c r="CF3">
-        <v>3.671486448365235e-23</v>
-      </c>
-      <c r="CG3">
-        <v>2.336089852039541e-27</v>
-      </c>
-      <c r="CH3">
-        <v>0.9999886751174927</v>
-      </c>
-      <c r="CI3">
-        <v>0.9999898672103882</v>
-      </c>
-      <c r="CJ3">
-        <v>2.767767227851436e-06</v>
-      </c>
-      <c r="CK3">
-        <v>0.02107110992074013</v>
-      </c>
-      <c r="CL3">
-        <v>0.1037615463137627</v>
-      </c>
-      <c r="CM3">
-        <v>0.2716274261474609</v>
-      </c>
-      <c r="CN3">
-        <v>0.5339697599411011</v>
-      </c>
-      <c r="CO3">
-        <v>0.6903063058853149</v>
-      </c>
-      <c r="CP3">
-        <v>0.6230605840682983</v>
-      </c>
-      <c r="CQ3">
-        <v>0.1357767879962921</v>
-      </c>
-      <c r="CR3">
-        <v>0.2549991011619568</v>
-      </c>
-      <c r="CS3">
-        <v>0.08809974044561386</v>
-      </c>
-      <c r="CT3">
-        <v>0.9999908804893494</v>
-      </c>
-      <c r="CU3">
-        <v>0.006507882382720709</v>
-      </c>
-      <c r="CV3">
-        <v>0.0005077837849967182</v>
-      </c>
-      <c r="CW3">
-        <v>0.0004814230487681925</v>
-      </c>
-      <c r="CX3">
-        <v>1.699417907730094e-06</v>
-      </c>
-      <c r="CY3">
-        <v>7.960931043271557e-07</v>
-      </c>
-      <c r="CZ3">
-        <v>8.565314857378326e-08</v>
-      </c>
-      <c r="DA3">
-        <v>4.134647113573919e-08</v>
-      </c>
-      <c r="DB3">
-        <v>3.06969596408635e-08</v>
-      </c>
-      <c r="DC3">
-        <v>3.521686497975907e-09</v>
-      </c>
-      <c r="DD3">
-        <v>3.400477766035692e-08</v>
-      </c>
-      <c r="DE3">
-        <v>2.217470651544318e-10</v>
-      </c>
-      <c r="DF3">
-        <v>1.483253797562867e-10</v>
-      </c>
-      <c r="DG3">
-        <v>1.450387900059358e-11</v>
-      </c>
-      <c r="DH3">
-        <v>4.159926916824652e-11</v>
-      </c>
-      <c r="DI3">
-        <v>2.586868913523332e-11</v>
-      </c>
-      <c r="DJ3">
-        <v>1.674226621055375e-12</v>
-      </c>
-      <c r="DK3">
-        <v>1.867577099912143e-11</v>
-      </c>
-      <c r="DL3">
-        <v>2.1950078202531e-13</v>
-      </c>
-      <c r="DM3">
-        <v>3.956603450205876e-06</v>
-      </c>
-      <c r="DN3">
-        <v>1.251066477248475e-14</v>
-      </c>
-      <c r="DO3">
-        <v>1.967404104213921e-14</v>
-      </c>
-      <c r="DP3">
-        <v>1.746844411572898e-15</v>
-      </c>
-      <c r="DQ3">
-        <v>1.649003635835553e-15</v>
-      </c>
-      <c r="DR3">
-        <v>1.199824181488966e-15</v>
-      </c>
-      <c r="DS3">
-        <v>2.446952976242756e-06</v>
-      </c>
-      <c r="DT3">
-        <v>1.362480206209063e-18</v>
-      </c>
-      <c r="DU3">
-        <v>1.327386422486647e-19</v>
-      </c>
-      <c r="DV3">
-        <v>2.201444782574603e-23</v>
-      </c>
-      <c r="DW3">
-        <v>5.979258276056498e-06</v>
-      </c>
-      <c r="DX3">
-        <v>4.936841378366807e-06</v>
-      </c>
-      <c r="DY3">
-        <v>4.776365585712483e-06</v>
-      </c>
-      <c r="DZ3">
-        <v>0.002660624217242002</v>
-      </c>
-      <c r="EA3">
-        <v>0.007108134683221579</v>
-      </c>
-      <c r="EB3">
-        <v>0.0145481089130044</v>
-      </c>
-      <c r="EC3">
-        <v>0.03276263177394867</v>
-      </c>
-      <c r="ED3">
-        <v>0.06960874050855637</v>
-      </c>
-      <c r="EE3">
-        <v>0.3066696524620056</v>
-      </c>
-      <c r="EF3">
-        <v>0.8460677862167358</v>
-      </c>
-      <c r="EG3">
-        <v>0.7083788514137268</v>
-      </c>
-      <c r="EH3">
-        <v>0.701972484588623</v>
-      </c>
-      <c r="EI3">
-        <v>2.243267772428226e-06</v>
-      </c>
-      <c r="EJ3">
-        <v>0.2805814743041992</v>
-      </c>
-      <c r="EK3">
-        <v>0.07571829110383987</v>
-      </c>
-      <c r="EL3">
-        <v>0.05074268952012062</v>
-      </c>
-      <c r="EM3">
-        <v>0.00136508874129504</v>
-      </c>
-      <c r="EN3">
-        <v>0.0008062026463449001</v>
-      </c>
-      <c r="EO3">
-        <v>0.0002072472125291824</v>
-      </c>
-      <c r="EP3">
-        <v>0.000127518898807466</v>
-      </c>
-      <c r="EQ3">
-        <v>0.000103214209957514</v>
-      </c>
-      <c r="ER3">
-        <v>2.421658064122312e-05</v>
-      </c>
-      <c r="ES3">
-        <v>9.46856162045151e-05</v>
-      </c>
-      <c r="ET3">
-        <v>3.354553655299242e-06</v>
-      </c>
-      <c r="EU3">
-        <v>2.127395418938249e-06</v>
-      </c>
-      <c r="EV3">
-        <v>5.31930254510371e-07</v>
-      </c>
-      <c r="EW3">
-        <v>1.027265852826531e-06</v>
-      </c>
-      <c r="EX3">
-        <v>7.390084419967025e-07</v>
-      </c>
-      <c r="EY3">
-        <v>1.25855166288602e-07</v>
-      </c>
-      <c r="EZ3">
-        <v>5.795837978439522e-07</v>
-      </c>
-      <c r="FA3">
-        <v>3.113755298045362e-08</v>
-      </c>
-      <c r="FB3">
-        <v>5.66274911761866e-06</v>
-      </c>
-      <c r="FC3">
-        <v>4.480857462851873e-09</v>
-      </c>
-      <c r="FD3">
-        <v>5.664608782041114e-09</v>
-      </c>
-      <c r="FE3">
-        <v>9.978955439748916e-10</v>
-      </c>
-      <c r="FF3">
-        <v>9.21261900099779e-10</v>
-      </c>
-      <c r="FG3">
-        <v>7.855425199210231e-10</v>
-      </c>
-      <c r="FH3">
-        <v>4.421214271133067e-06</v>
-      </c>
-      <c r="FI3">
-        <v>8.199461075386605e-12</v>
-      </c>
-      <c r="FJ3">
-        <v>1.513534306565867e-12</v>
-      </c>
-      <c r="FK3">
-        <v>3.699794173827632e-15</v>
-      </c>
-      <c r="FL3">
-        <v>1.688596057647374e-06</v>
-      </c>
-      <c r="FM3">
-        <v>3.918775291822385e-06</v>
-      </c>
-      <c r="FN3">
-        <v>2.414523123661638e-06</v>
-      </c>
-      <c r="FO3">
-        <v>1.662404315538879e-06</v>
-      </c>
-      <c r="FP3">
-        <v>2.28471435548272e-06</v>
-      </c>
-      <c r="FQ3">
-        <v>3.671004833449842e-06</v>
-      </c>
-      <c r="FR3">
-        <v>2.60526583540086e-23</v>
-      </c>
-      <c r="FS3">
-        <v>1.87065913500044e-15</v>
-      </c>
-      <c r="FT3">
-        <v>8.042366061999928e-08</v>
-      </c>
-      <c r="FU3">
-        <v>0.01249646488577127</v>
-      </c>
-      <c r="FV3">
-        <v>0.02078173868358135</v>
-      </c>
-      <c r="FW3">
-        <v>0.2071304768323898</v>
-      </c>
-      <c r="FX3">
-        <v>4.950205493514659e-06</v>
-      </c>
-      <c r="FY3">
-        <v>0.7127728462219238</v>
-      </c>
-      <c r="FZ3">
-        <v>0.9237674474716187</v>
-      </c>
-      <c r="GA3">
-        <v>0.9487701654434204</v>
-      </c>
-      <c r="GB3">
-        <v>0.9986332654953003</v>
-      </c>
-      <c r="GC3">
-        <v>0.9991928935050964</v>
-      </c>
-      <c r="GD3">
-        <v>0.999792754650116</v>
-      </c>
-      <c r="GE3">
-        <v>0.9998724460601807</v>
-      </c>
-      <c r="GF3">
-        <v>0.9998968243598938</v>
-      </c>
-      <c r="GG3">
-        <v>0.9999758005142212</v>
-      </c>
-      <c r="GH3">
-        <v>0.9999052882194519</v>
-      </c>
-      <c r="GI3">
-        <v>0.9999966025352478</v>
-      </c>
-      <c r="GJ3">
-        <v>0.9999978542327881</v>
-      </c>
-      <c r="GK3">
-        <v>0.9999994039535522</v>
-      </c>
-      <c r="GL3">
-        <v>0.9999990463256836</v>
-      </c>
-      <c r="GM3">
-        <v>0.9999993443489075</v>
-      </c>
-      <c r="GN3">
-        <v>0.9999998807907104</v>
-      </c>
-      <c r="GO3">
-        <v>0.9999994039535522</v>
-      </c>
-      <c r="GP3">
-        <v>0.9999998807907104</v>
-      </c>
-      <c r="GQ3">
-        <v>0.9999832510948181</v>
-      </c>
-      <c r="GR3">
+      <c r="GQ2">
         <v>1</v>
       </c>
-      <c r="GS3">
+      <c r="GR2">
         <v>1</v>
       </c>
-      <c r="GT3">
+      <c r="GS2">
         <v>1</v>
       </c>
-      <c r="GU3">
+      <c r="GT2">
         <v>1</v>
       </c>
-      <c r="GV3">
+      <c r="GU2">
+        <v>0.9999903440475464</v>
+      </c>
+      <c r="GV2">
         <v>1</v>
       </c>
-      <c r="GW3">
-        <v>0.9999903440475464</v>
-      </c>
-      <c r="GX3">
+      <c r="GW2">
         <v>1</v>
       </c>
-      <c r="GY3">
+      <c r="GX2">
         <v>1</v>
       </c>
-      <c r="GZ3">
-        <v>1</v>
-      </c>
-      <c r="HA3">
+      <c r="GY2">
         <v>3.696278326970059e-06</v>
       </c>
-      <c r="HB3">
+      <c r="GZ2">
         <v>1.283098868043453e-06</v>
       </c>
-      <c r="HC3">
+      <c r="HA2">
         <v>0.864152729511261</v>
       </c>
-      <c r="HD3">
+      <c r="HB2">
         <v>0.4384130537509918</v>
       </c>
-      <c r="HE3">
+      <c r="HC2">
         <v>0.8138411045074463</v>
       </c>
-      <c r="HF3">
+      <c r="HD2">
         <v>0.8802074193954468</v>
       </c>
-      <c r="HG3">
+      <c r="HE2">
         <v>0.8720325827598572</v>
       </c>
-      <c r="HH3">
+      <c r="HF2">
         <v>118.5048294067383</v>
       </c>
-      <c r="HI3">
+      <c r="HG2">
         <v>13.20657253265381</v>
       </c>
-      <c r="HJ3">
+      <c r="HH2">
         <v>14.68026447296143</v>
       </c>
-      <c r="HK3">
+      <c r="HI2">
         <v>176.97607421875</v>
       </c>
-      <c r="HL3">
-        <v>192.9172668457031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:220">
-      <c r="A4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4">
-        <v>5.3799996273845</v>
-      </c>
-      <c r="E4">
-        <v>79.99983215500001</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.020720026455</v>
-      </c>
-      <c r="H4">
-        <v>0.5025289655</v>
-      </c>
-      <c r="I4">
-        <v>0.46270649135</v>
-      </c>
-      <c r="J4">
-        <v>0.1382605247</v>
-      </c>
-      <c r="K4">
-        <v>0.069504845885</v>
-      </c>
-      <c r="L4">
-        <v>0.014335173645</v>
-      </c>
-      <c r="M4">
-        <v>15.6840148</v>
-      </c>
-      <c r="N4">
-        <v>0.0070457637775</v>
-      </c>
-      <c r="O4">
-        <v>0.01390316058</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0.011217116845</v>
-      </c>
-      <c r="R4">
-        <v>42.71531296</v>
-      </c>
-      <c r="S4">
-        <v>0.007478077896000001</v>
-      </c>
-      <c r="T4">
-        <v>0.0088023208085</v>
-      </c>
-      <c r="U4">
-        <v>0.0088023208085</v>
-      </c>
-      <c r="V4">
-        <v>0.8395257294</v>
-      </c>
-      <c r="W4">
-        <v>6.211980343</v>
-      </c>
-      <c r="X4">
-        <v>13.40361929</v>
-      </c>
-      <c r="Y4">
-        <v>5.668794870499999</v>
-      </c>
-      <c r="Z4">
-        <v>0.012775049545</v>
-      </c>
-      <c r="AA4">
-        <v>0.008832471678500001</v>
-      </c>
-      <c r="AB4">
-        <v>0.0024147959195</v>
-      </c>
-      <c r="AC4">
-        <v>0.010637788102</v>
-      </c>
-      <c r="AD4">
-        <v>0.95064103585</v>
-      </c>
-      <c r="AE4">
-        <v>0.49817502495</v>
-      </c>
-      <c r="AF4">
-        <v>2.607076049</v>
-      </c>
-      <c r="AG4">
-        <v>0.2799688876</v>
-      </c>
-      <c r="AH4">
-        <v>6.6587879655</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>1.06311696755</v>
-      </c>
-      <c r="AK4">
-        <v>0.042034257205</v>
-      </c>
-      <c r="AL4">
-        <v>0.0008307401149000001</v>
-      </c>
-      <c r="AM4">
-        <v>0.02056835778</v>
-      </c>
-      <c r="AN4">
-        <v>0.79971787335</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0.92039969565</v>
-      </c>
-      <c r="AQ4">
-        <v>0.2850243598</v>
-      </c>
-      <c r="AR4">
-        <v>0.1223625764</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0.9999901056289673</v>
-      </c>
-      <c r="AV4">
-        <v>0.9762665629386902</v>
-      </c>
-      <c r="AW4">
-        <v>0.8891280889511108</v>
-      </c>
-      <c r="AX4">
-        <v>0.7138208150863647</v>
-      </c>
-      <c r="AY4">
-        <v>0.4332675933837891</v>
-      </c>
-      <c r="AZ4">
-        <v>0.2400849908590317</v>
-      </c>
-      <c r="BA4">
-        <v>0.07026967406272888</v>
-      </c>
-      <c r="BB4">
-        <v>0.005659035872668028</v>
-      </c>
-      <c r="BC4">
-        <v>0.0158403143286705</v>
-      </c>
-      <c r="BD4">
-        <v>0.002797321416437626</v>
-      </c>
-      <c r="BE4">
-        <v>1.791311660781503e-06</v>
-      </c>
-      <c r="BF4">
-        <v>0.000137718379846774</v>
-      </c>
-      <c r="BG4">
-        <v>6.47789056529291e-06</v>
-      </c>
-      <c r="BH4">
-        <v>5.77239097765414e-06</v>
-      </c>
-      <c r="BI4">
-        <v>1.46665009026492e-08</v>
-      </c>
-      <c r="BJ4">
-        <v>6.750045855596909e-09</v>
-      </c>
-      <c r="BK4">
-        <v>4.202883874260266e-10</v>
-      </c>
-      <c r="BL4">
-        <v>1.926713094624333e-10</v>
-      </c>
-      <c r="BM4">
-        <v>1.295984847216047e-10</v>
-      </c>
-      <c r="BN4">
-        <v>1.276252714621506e-11</v>
-      </c>
-      <c r="BO4">
-        <v>1.362257806558631e-10</v>
-      </c>
-      <c r="BP4">
-        <v>6.430097882099972e-13</v>
-      </c>
-      <c r="BQ4">
-        <v>6.09154762222508e-13</v>
-      </c>
-      <c r="BR4">
-        <v>2.962978170109598e-14</v>
-      </c>
-      <c r="BS4">
-        <v>1.044270599897049e-13</v>
-      </c>
-      <c r="BT4">
-        <v>6.249923403247801e-14</v>
-      </c>
-      <c r="BU4">
-        <v>2.455890715400907e-15</v>
-      </c>
-      <c r="BV4">
-        <v>4.807430359831874e-14</v>
-      </c>
-      <c r="BW4">
-        <v>2.719194401065814e-16</v>
-      </c>
-      <c r="BX4">
-        <v>7.012452897470212e-06</v>
-      </c>
-      <c r="BY4">
-        <v>1.102230822090281e-17</v>
-      </c>
-      <c r="BZ4">
-        <v>2.347937941225233e-17</v>
-      </c>
-      <c r="CA4">
-        <v>1.300713492496386e-18</v>
-      </c>
-      <c r="CB4">
-        <v>1.466706927944699e-18</v>
-      </c>
-      <c r="CC4">
-        <v>8.101337125980169e-19</v>
-      </c>
-      <c r="CD4">
-        <v>2.778546559056849e-06</v>
-      </c>
-      <c r="CE4">
-        <v>4.431296004584109e-22</v>
-      </c>
-      <c r="CF4">
-        <v>3.671486448365235e-23</v>
-      </c>
-      <c r="CG4">
-        <v>2.336089852039541e-27</v>
-      </c>
-      <c r="CH4">
-        <v>0.9999886751174927</v>
-      </c>
-      <c r="CI4">
-        <v>0.9999898672103882</v>
-      </c>
-      <c r="CJ4">
-        <v>2.767767227851436e-06</v>
-      </c>
-      <c r="CK4">
-        <v>0.02107110992074013</v>
-      </c>
-      <c r="CL4">
-        <v>0.1037615463137627</v>
-      </c>
-      <c r="CM4">
-        <v>0.2716274261474609</v>
-      </c>
-      <c r="CN4">
-        <v>0.5339697599411011</v>
-      </c>
-      <c r="CO4">
-        <v>0.6903063058853149</v>
-      </c>
-      <c r="CP4">
-        <v>0.6230605840682983</v>
-      </c>
-      <c r="CQ4">
-        <v>0.1357767879962921</v>
-      </c>
-      <c r="CR4">
-        <v>0.2549991011619568</v>
-      </c>
-      <c r="CS4">
-        <v>0.08809974044561386</v>
-      </c>
-      <c r="CT4">
-        <v>0.9999908804893494</v>
-      </c>
-      <c r="CU4">
-        <v>0.006507882382720709</v>
-      </c>
-      <c r="CV4">
-        <v>0.0005077837849967182</v>
-      </c>
-      <c r="CW4">
-        <v>0.0004814230487681925</v>
-      </c>
-      <c r="CX4">
-        <v>1.699417907730094e-06</v>
-      </c>
-      <c r="CY4">
-        <v>7.960931043271557e-07</v>
-      </c>
-      <c r="CZ4">
-        <v>8.565314857378326e-08</v>
-      </c>
-      <c r="DA4">
-        <v>4.134647113573919e-08</v>
-      </c>
-      <c r="DB4">
-        <v>3.06969596408635e-08</v>
-      </c>
-      <c r="DC4">
-        <v>3.521686497975907e-09</v>
-      </c>
-      <c r="DD4">
-        <v>3.400477766035692e-08</v>
-      </c>
-      <c r="DE4">
-        <v>2.217470651544318e-10</v>
-      </c>
-      <c r="DF4">
-        <v>1.483253797562867e-10</v>
-      </c>
-      <c r="DG4">
-        <v>1.450387900059358e-11</v>
-      </c>
-      <c r="DH4">
-        <v>4.159926916824652e-11</v>
-      </c>
-      <c r="DI4">
-        <v>2.586868913523332e-11</v>
-      </c>
-      <c r="DJ4">
-        <v>1.674226621055375e-12</v>
-      </c>
-      <c r="DK4">
-        <v>1.867577099912143e-11</v>
-      </c>
-      <c r="DL4">
-        <v>2.1950078202531e-13</v>
-      </c>
-      <c r="DM4">
-        <v>3.956603450205876e-06</v>
-      </c>
-      <c r="DN4">
-        <v>1.251066477248475e-14</v>
-      </c>
-      <c r="DO4">
-        <v>1.967404104213921e-14</v>
-      </c>
-      <c r="DP4">
-        <v>1.746844411572898e-15</v>
-      </c>
-      <c r="DQ4">
-        <v>1.649003635835553e-15</v>
-      </c>
-      <c r="DR4">
-        <v>1.199824181488966e-15</v>
-      </c>
-      <c r="DS4">
-        <v>2.446952976242756e-06</v>
-      </c>
-      <c r="DT4">
-        <v>1.362480206209063e-18</v>
-      </c>
-      <c r="DU4">
-        <v>1.327386422486647e-19</v>
-      </c>
-      <c r="DV4">
-        <v>2.201444782574603e-23</v>
-      </c>
-      <c r="DW4">
-        <v>5.979258276056498e-06</v>
-      </c>
-      <c r="DX4">
-        <v>4.936841378366807e-06</v>
-      </c>
-      <c r="DY4">
-        <v>4.776365585712483e-06</v>
-      </c>
-      <c r="DZ4">
-        <v>0.002660624217242002</v>
-      </c>
-      <c r="EA4">
-        <v>0.007108134683221579</v>
-      </c>
-      <c r="EB4">
-        <v>0.0145481089130044</v>
-      </c>
-      <c r="EC4">
-        <v>0.03276263177394867</v>
-      </c>
-      <c r="ED4">
-        <v>0.06960874050855637</v>
-      </c>
-      <c r="EE4">
-        <v>0.3066696524620056</v>
-      </c>
-      <c r="EF4">
-        <v>0.8460677862167358</v>
-      </c>
-      <c r="EG4">
-        <v>0.7083788514137268</v>
-      </c>
-      <c r="EH4">
-        <v>0.701972484588623</v>
-      </c>
-      <c r="EI4">
-        <v>2.243267772428226e-06</v>
-      </c>
-      <c r="EJ4">
-        <v>0.2805814743041992</v>
-      </c>
-      <c r="EK4">
-        <v>0.07571829110383987</v>
-      </c>
-      <c r="EL4">
-        <v>0.05074268952012062</v>
-      </c>
-      <c r="EM4">
-        <v>0.00136508874129504</v>
-      </c>
-      <c r="EN4">
-        <v>0.0008062026463449001</v>
-      </c>
-      <c r="EO4">
-        <v>0.0002072472125291824</v>
-      </c>
-      <c r="EP4">
-        <v>0.000127518898807466</v>
-      </c>
-      <c r="EQ4">
-        <v>0.000103214209957514</v>
-      </c>
-      <c r="ER4">
-        <v>2.421658064122312e-05</v>
-      </c>
-      <c r="ES4">
-        <v>9.46856162045151e-05</v>
-      </c>
-      <c r="ET4">
-        <v>3.354553655299242e-06</v>
-      </c>
-      <c r="EU4">
-        <v>2.127395418938249e-06</v>
-      </c>
-      <c r="EV4">
-        <v>5.31930254510371e-07</v>
-      </c>
-      <c r="EW4">
-        <v>1.027265852826531e-06</v>
-      </c>
-      <c r="EX4">
-        <v>7.390084419967025e-07</v>
-      </c>
-      <c r="EY4">
-        <v>1.25855166288602e-07</v>
-      </c>
-      <c r="EZ4">
-        <v>5.795837978439522e-07</v>
-      </c>
-      <c r="FA4">
-        <v>3.113755298045362e-08</v>
-      </c>
-      <c r="FB4">
-        <v>5.66274911761866e-06</v>
-      </c>
-      <c r="FC4">
-        <v>4.480857462851873e-09</v>
-      </c>
-      <c r="FD4">
-        <v>5.664608782041114e-09</v>
-      </c>
-      <c r="FE4">
-        <v>9.978955439748916e-10</v>
-      </c>
-      <c r="FF4">
-        <v>9.21261900099779e-10</v>
-      </c>
-      <c r="FG4">
-        <v>7.855425199210231e-10</v>
-      </c>
-      <c r="FH4">
-        <v>4.421214271133067e-06</v>
-      </c>
-      <c r="FI4">
-        <v>8.199461075386605e-12</v>
-      </c>
-      <c r="FJ4">
-        <v>1.513534306565867e-12</v>
-      </c>
-      <c r="FK4">
-        <v>3.699794173827632e-15</v>
-      </c>
-      <c r="FL4">
-        <v>1.688596057647374e-06</v>
-      </c>
-      <c r="FM4">
-        <v>3.918775291822385e-06</v>
-      </c>
-      <c r="FN4">
-        <v>2.414523123661638e-06</v>
-      </c>
-      <c r="FO4">
-        <v>1.662404315538879e-06</v>
-      </c>
-      <c r="FP4">
-        <v>2.28471435548272e-06</v>
-      </c>
-      <c r="FQ4">
-        <v>3.671004833449842e-06</v>
-      </c>
-      <c r="FR4">
-        <v>2.60526583540086e-23</v>
-      </c>
-      <c r="FS4">
-        <v>1.87065913500044e-15</v>
-      </c>
-      <c r="FT4">
-        <v>8.042366061999928e-08</v>
-      </c>
-      <c r="FU4">
-        <v>0.01249646488577127</v>
-      </c>
-      <c r="FV4">
-        <v>0.02078173868358135</v>
-      </c>
-      <c r="FW4">
-        <v>0.2071304768323898</v>
-      </c>
-      <c r="FX4">
-        <v>4.950205493514659e-06</v>
-      </c>
-      <c r="FY4">
-        <v>0.7127728462219238</v>
-      </c>
-      <c r="FZ4">
-        <v>0.9237674474716187</v>
-      </c>
-      <c r="GA4">
-        <v>0.9487701654434204</v>
-      </c>
-      <c r="GB4">
-        <v>0.9986332654953003</v>
-      </c>
-      <c r="GC4">
-        <v>0.9991928935050964</v>
-      </c>
-      <c r="GD4">
-        <v>0.999792754650116</v>
-      </c>
-      <c r="GE4">
-        <v>0.9998724460601807</v>
-      </c>
-      <c r="GF4">
-        <v>0.9998968243598938</v>
-      </c>
-      <c r="GG4">
-        <v>0.9999758005142212</v>
-      </c>
-      <c r="GH4">
-        <v>0.9999052882194519</v>
-      </c>
-      <c r="GI4">
-        <v>0.9999966025352478</v>
-      </c>
-      <c r="GJ4">
-        <v>0.9999978542327881</v>
-      </c>
-      <c r="GK4">
-        <v>0.9999994039535522</v>
-      </c>
-      <c r="GL4">
-        <v>0.9999990463256836</v>
-      </c>
-      <c r="GM4">
-        <v>0.9999993443489075</v>
-      </c>
-      <c r="GN4">
-        <v>0.9999998807907104</v>
-      </c>
-      <c r="GO4">
-        <v>0.9999994039535522</v>
-      </c>
-      <c r="GP4">
-        <v>0.9999998807907104</v>
-      </c>
-      <c r="GQ4">
-        <v>0.9999832510948181</v>
-      </c>
-      <c r="GR4">
-        <v>1</v>
-      </c>
-      <c r="GS4">
-        <v>1</v>
-      </c>
-      <c r="GT4">
-        <v>1</v>
-      </c>
-      <c r="GU4">
-        <v>1</v>
-      </c>
-      <c r="GV4">
-        <v>1</v>
-      </c>
-      <c r="GW4">
-        <v>0.9999903440475464</v>
-      </c>
-      <c r="GX4">
-        <v>1</v>
-      </c>
-      <c r="GY4">
-        <v>1</v>
-      </c>
-      <c r="GZ4">
-        <v>1</v>
-      </c>
-      <c r="HA4">
-        <v>3.696278326970059e-06</v>
-      </c>
-      <c r="HB4">
-        <v>1.283098868043453e-06</v>
-      </c>
-      <c r="HC4">
-        <v>0.864152729511261</v>
-      </c>
-      <c r="HD4">
-        <v>0.4384130537509918</v>
-      </c>
-      <c r="HE4">
-        <v>0.8138411045074463</v>
-      </c>
-      <c r="HF4">
-        <v>0.8802074193954468</v>
-      </c>
-      <c r="HG4">
-        <v>0.8720325827598572</v>
-      </c>
-      <c r="HH4">
-        <v>118.5048294067383</v>
-      </c>
-      <c r="HI4">
-        <v>13.20657253265381</v>
-      </c>
-      <c r="HJ4">
-        <v>14.68026447296143</v>
-      </c>
-      <c r="HK4">
-        <v>176.97607421875</v>
-      </c>
-      <c r="HL4">
+      <c r="HJ2">
         <v>192.9172668457031</v>
       </c>
     </row>
